--- a/1_政策宣傳執情形/總整理/農委會.xlsx
+++ b/1_政策宣傳執情形/總整理/農委會.xlsx
@@ -2121,43 +2121,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c t="s" s="1" r="A1">
         <v>226</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c t="s" s="1" r="B1">
         <v>301</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>363</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c t="s" s="1" r="D1">
         <v>345</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c t="s" s="1" r="E1">
         <v>536</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c t="s" s="1" r="F1">
         <v>290</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c t="s" s="1" r="G1">
         <v>467</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c t="s" s="1" r="H1">
         <v>234</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>508</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>445</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>446</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>499</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>552</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>242</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>277</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>84</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>264</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>82</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>85</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>253</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>278</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>12</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>279</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>470</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>338</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>338</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>527</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>321</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>257</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>13</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>68</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>250</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>441</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>87</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>343</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>266</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>86</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>322</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>459</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>252</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>377</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>557</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>447</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>528</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>563</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>459</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>456</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>204</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>204</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>263</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>263</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>335</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>335</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>335</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>335</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>88</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>265</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>265</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>303</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>304</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>311</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>312</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>312</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>312</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>460</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>460</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>460</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>529</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>460</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>460</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>460</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>102</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>102</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>102</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>102</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>102</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>34</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="72">
+    <row r="72" spans="1:8">
       <c t="s" r="A72">
         <v>35</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="73">
+    <row r="73" spans="1:8">
       <c t="s" r="A73">
         <v>83</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="74">
+    <row r="74" spans="1:8">
       <c t="s" r="A74">
         <v>458</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="75">
+    <row r="75" spans="1:8">
       <c t="s" r="A75">
         <v>539</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="76">
+    <row r="76" spans="1:8">
       <c t="s" r="A76">
         <v>539</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="77">
+    <row r="77" spans="1:8">
       <c t="s" r="A77">
         <v>539</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="78">
+    <row r="78" spans="1:8">
       <c t="s" r="A78">
         <v>539</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="79">
+    <row r="79" spans="1:8">
       <c t="s" r="A79">
         <v>539</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="80">
+    <row r="80" spans="1:8">
       <c t="s" r="A80">
         <v>450</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="81">
+    <row r="81" spans="1:8">
       <c t="s" r="A81">
         <v>450</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="82">
+    <row r="82" spans="1:8">
       <c t="s" r="A82">
         <v>450</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="83">
+    <row r="83" spans="1:8">
       <c t="s" r="A83">
         <v>358</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="84">
+    <row r="84" spans="1:8">
       <c t="s" r="A84">
         <v>358</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="85">
+    <row r="85" spans="1:8">
       <c t="s" r="A85">
         <v>358</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="86">
+    <row r="86" spans="1:8">
       <c t="s" r="A86">
         <v>358</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="87">
+    <row r="87" spans="1:8">
       <c t="s" r="A87">
         <v>358</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="88">
+    <row r="88" spans="1:8">
       <c t="s" r="A88">
         <v>272</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="89">
+    <row r="89" spans="1:8">
       <c t="s" r="A89">
         <v>272</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="90">
+    <row r="90" spans="1:8">
       <c t="s" r="A90">
         <v>272</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="91">
+    <row r="91" spans="1:8">
       <c t="s" r="A91">
         <v>272</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="92">
+    <row r="92" spans="1:8">
       <c t="s" r="A92">
         <v>272</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="93">
+    <row r="93" spans="1:8">
       <c t="s" r="A93">
         <v>422</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="94">
+    <row r="94" spans="1:8">
       <c t="s" r="A94">
         <v>422</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="95">
+    <row r="95" spans="1:8">
       <c t="s" r="A95">
         <v>323</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="96">
+    <row r="96" spans="1:8">
       <c t="s" r="A96">
         <v>323</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="97">
+    <row r="97" spans="1:8">
       <c t="s" r="A97">
         <v>323</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="98">
+    <row r="98" spans="1:8">
       <c t="s" r="A98">
         <v>353</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="99">
+    <row r="99" spans="1:8">
       <c t="s" r="A99">
         <v>353</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="100">
+    <row r="100" spans="1:8">
       <c t="s" r="A100">
         <v>353</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="101">
+    <row r="101" spans="1:8">
       <c t="s" r="A101">
         <v>353</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="102">
+    <row r="102" spans="1:8">
       <c t="s" r="A102">
         <v>353</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="103">
+    <row r="103" spans="1:8">
       <c t="s" r="A103">
         <v>561</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="104">
+    <row r="104" spans="1:8">
       <c t="s" r="A104">
         <v>202</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="105">
+    <row r="105" spans="1:8">
       <c t="s" r="A105">
         <v>391</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="106">
+    <row r="106" spans="1:8">
       <c t="s" r="A106">
         <v>394</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="107">
+    <row r="107" spans="1:8">
       <c t="s" r="A107">
         <v>356</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="108">
+    <row r="108" spans="1:8">
       <c t="s" r="A108">
         <v>396</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="109">
+    <row r="109" spans="1:8">
       <c t="s" r="A109">
         <v>232</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="110">
+    <row r="110" spans="1:8">
       <c t="s" r="A110">
         <v>374</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="111">
+    <row r="111" spans="1:8">
       <c t="s" r="A111">
         <v>29</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="112">
+    <row r="112" spans="1:8">
       <c t="s" r="A112">
         <v>490</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="113">
+    <row r="113" spans="1:8">
       <c t="s" r="A113">
         <v>229</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="114">
+    <row r="114" spans="1:8">
       <c t="s" r="A114">
         <v>390</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="115">
+    <row r="115" spans="1:8">
       <c t="s" r="A115">
         <v>308</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="116">
+    <row r="116" spans="1:8">
       <c t="s" r="A116">
         <v>30</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="117">
+    <row r="117" spans="1:8">
       <c t="s" r="A117">
         <v>383</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="118">
+    <row r="118" spans="1:8">
       <c t="s" r="A118">
         <v>376</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="119">
+    <row r="119" spans="1:8">
       <c t="s" r="A119">
         <v>489</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="120">
+    <row r="120" spans="1:8">
       <c t="s" r="A120">
         <v>254</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="121">
+    <row r="121" spans="1:8">
       <c t="s" r="A121">
         <v>466</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="122">
+    <row r="122" spans="1:8">
       <c t="s" r="A122">
         <v>31</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="123">
+    <row r="123" spans="1:8">
       <c t="s" r="A123">
         <v>299</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="124">
+    <row r="124" spans="1:8">
       <c t="s" r="A124">
         <v>392</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="125">
+    <row r="125" spans="1:8">
       <c t="s" r="A125">
         <v>431</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="126">
+    <row r="126" spans="1:8">
       <c t="s" r="A126">
         <v>220</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="127">
+    <row r="127" spans="1:8">
       <c t="s" r="A127">
         <v>330</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="128">
+    <row r="128" spans="1:8">
       <c t="s" r="A128">
         <v>551</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="129">
+    <row r="129" spans="1:8">
       <c t="s" r="A129">
         <v>543</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="130">
+    <row r="130" spans="1:8">
       <c t="s" r="A130">
         <v>469</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="131">
+    <row r="131" spans="1:8">
       <c t="s" r="A131">
         <v>375</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="132">
+    <row r="132" spans="1:8">
       <c t="s" r="A132">
         <v>443</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="133">
+    <row r="133" spans="1:8">
       <c t="s" r="A133">
         <v>220</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="134">
+    <row r="134" spans="1:8">
       <c t="s" r="A134">
         <v>387</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="135">
+    <row r="135" spans="1:8">
       <c t="s" r="A135">
         <v>387</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="136">
+    <row r="136" spans="1:8">
       <c t="s" r="A136">
         <v>418</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="137">
+    <row r="137" spans="1:8">
       <c t="s" r="A137">
         <v>418</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="138">
+    <row r="138" spans="1:8">
       <c t="s" r="A138">
         <v>361</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="139">
+    <row r="139" spans="1:8">
       <c t="s" r="A139">
         <v>361</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="140">
+    <row r="140" spans="1:8">
       <c t="s" r="A140">
         <v>239</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="141">
+    <row r="141" spans="1:8">
       <c t="s" r="A141">
         <v>239</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="142">
+    <row r="142" spans="1:8">
       <c t="s" r="A142">
         <v>417</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="143">
+    <row r="143" spans="1:8">
       <c t="s" r="A143">
         <v>417</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="144">
+    <row r="144" spans="1:8">
       <c t="s" r="A144">
         <v>560</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="145">
+    <row r="145" spans="1:8">
       <c t="s" r="A145">
         <v>560</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="146">
+    <row r="146" spans="1:8">
       <c t="s" r="A146">
         <v>393</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="147">
+    <row r="147" spans="1:8">
       <c t="s" r="A147">
         <v>393</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="148">
+    <row r="148" spans="1:8">
       <c t="s" r="A148">
         <v>558</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="149">
+    <row r="149" spans="1:8">
       <c t="s" r="A149">
         <v>303</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="150">
+    <row r="150" spans="1:8">
       <c t="s" r="A150">
         <v>384</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="151">
+    <row r="151" spans="1:8">
       <c t="s" r="A151">
         <v>402</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="152">
+    <row r="152" spans="1:8">
       <c t="s" r="A152">
         <v>248</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="153">
+    <row r="153" spans="1:8">
       <c t="s" r="A153">
         <v>336</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="154">
+    <row r="154" spans="1:8">
       <c t="s" r="A154">
         <v>337</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="155">
+    <row r="155" spans="1:8">
       <c t="s" r="A155">
         <v>475</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="156">
+    <row r="156" spans="1:8">
       <c t="s" r="A156">
         <v>395</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="157">
+    <row r="157" spans="1:8">
       <c t="s" r="A157">
         <v>427</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="158">
+    <row r="158" spans="1:8">
       <c t="s" r="A158">
         <v>427</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="159">
+    <row r="159" spans="1:8">
       <c t="s" r="A159">
         <v>243</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="160">
+    <row r="160" spans="1:8">
       <c t="s" r="A160">
         <v>243</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="161">
+    <row r="161" spans="1:8">
       <c t="s" r="A161">
         <v>218</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="162">
+    <row r="162" spans="1:8">
       <c t="s" r="A162">
         <v>416</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="163">
+    <row r="163" spans="1:8">
       <c t="s" r="A163">
         <v>429</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="164">
+    <row r="164" spans="1:8">
       <c t="s" r="A164">
         <v>420</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="165">
+    <row r="165" spans="1:8">
       <c t="s" r="A165">
         <v>415</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="166">
+    <row r="166" spans="1:8">
       <c t="s" r="A166">
         <v>415</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="167">
+    <row r="167" spans="1:8">
       <c t="s" r="A167">
         <v>220</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="168">
+    <row r="168" spans="1:8">
       <c t="s" r="A168">
         <v>418</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="169">
+    <row r="169" spans="1:8">
       <c t="s" r="A169">
         <v>239</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="170">
+    <row r="170" spans="1:8">
       <c t="s" r="A170">
         <v>361</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="171">
+    <row r="171" spans="1:8">
       <c t="s" r="A171">
         <v>371</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="172">
+    <row r="172" spans="1:8">
       <c t="s" r="A172">
         <v>371</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="173">
+    <row r="173" spans="1:8">
       <c t="s" r="A173">
         <v>371</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="174">
+    <row r="174" spans="1:8">
       <c t="s" r="A174">
         <v>282</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="175">
+    <row r="175" spans="1:8">
       <c t="s" r="A175">
         <v>282</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="176">
+    <row r="176" spans="1:8">
       <c t="s" r="A176">
         <v>282</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="177">
+    <row r="177" spans="1:8">
       <c t="s" r="A177">
         <v>282</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="178">
+    <row r="178" spans="1:8">
       <c t="s" r="A178">
         <v>405</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="179">
+    <row r="179" spans="1:8">
       <c t="s" r="A179">
         <v>405</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="180">
+    <row r="180" spans="1:8">
       <c t="s" r="A180">
         <v>405</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="181">
+    <row r="181" spans="1:8">
       <c t="s" r="A181">
         <v>405</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="182">
+    <row r="182" spans="1:8">
       <c t="s" r="A182">
         <v>28</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="183">
+    <row r="183" spans="1:8">
       <c t="s" r="A183">
         <v>28</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="184">
+    <row r="184" spans="1:8">
       <c t="s" r="A184">
         <v>428</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="185">
+    <row r="185" spans="1:8">
       <c t="s" r="A185">
         <v>428</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="186">
+    <row r="186" spans="1:8">
       <c t="s" r="A186">
         <v>370</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="187">
+    <row r="187" spans="1:8">
       <c t="s" r="A187">
         <v>370</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="188">
+    <row r="188" spans="1:8">
       <c t="s" r="A188">
         <v>289</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="189">
+    <row r="189" spans="1:8">
       <c t="s" r="A189">
         <v>289</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="190">
+    <row r="190" spans="1:8">
       <c t="s" r="A190">
         <v>504</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="191">
+    <row r="191" spans="1:8">
       <c t="s" r="A191">
         <v>504</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="192">
+    <row r="192" spans="1:8">
       <c t="s" r="A192">
         <v>504</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="193">
+    <row r="193" spans="1:8">
       <c t="s" r="A193">
         <v>215</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="194">
+    <row r="194" spans="1:8">
       <c t="s" r="A194">
         <v>215</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="195">
+    <row r="195" spans="1:8">
       <c t="s" r="A195">
         <v>215</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="196">
+    <row r="196" spans="1:8">
       <c t="s" r="A196">
         <v>215</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="197">
+    <row r="197" spans="1:8">
       <c t="s" r="A197">
         <v>372</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="198">
+    <row r="198" spans="1:8">
       <c t="s" r="A198">
         <v>372</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="199">
+    <row r="199" spans="1:8">
       <c t="s" r="A199">
         <v>468</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="200">
+    <row r="200" spans="1:8">
       <c t="s" r="A200">
         <v>33</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="201">
+    <row r="201" spans="1:8">
       <c t="s" r="A201">
         <v>33</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="202">
+    <row r="202" spans="1:8">
       <c t="s" r="A202">
         <v>503</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="203">
+    <row r="203" spans="1:8">
       <c t="s" r="A203">
         <v>503</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="204">
+    <row r="204" spans="1:8">
       <c t="s" r="A204">
         <v>307</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="205">
+    <row r="205" spans="1:8">
       <c t="s" r="A205">
         <v>524</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="206">
+    <row r="206" spans="1:8">
       <c t="s" r="A206">
         <v>240</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="207">
+    <row r="207" spans="1:8">
       <c t="s" r="A207">
         <v>435</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="208">
+    <row r="208" spans="1:8">
       <c t="s" r="A208">
         <v>457</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="209">
+    <row r="209" spans="1:8">
       <c t="s" r="A209">
         <v>457</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="210">
+    <row r="210" spans="1:8">
       <c t="s" r="A210">
         <v>457</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="211">
+    <row r="211" spans="1:8">
       <c t="s" r="A211">
         <v>457</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="212">
+    <row r="212" spans="1:8">
       <c t="s" r="A212">
         <v>457</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="213">
+    <row r="213" spans="1:8">
       <c t="s" r="A213">
         <v>457</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="214">
+    <row r="214" spans="1:8">
       <c t="s" r="A214">
         <v>318</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="215">
+    <row r="215" spans="1:8">
       <c t="s" r="A215">
         <v>318</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="216">
+    <row r="216" spans="1:8">
       <c t="s" r="A216">
         <v>318</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="217">
+    <row r="217" spans="1:8">
       <c t="s" r="A217">
         <v>331</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="218">
+    <row r="218" spans="1:8">
       <c t="s" r="A218">
         <v>331</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="219">
+    <row r="219" spans="1:8">
       <c t="s" r="A219">
         <v>26</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="220">
+    <row r="220" spans="1:8">
       <c t="s" r="A220">
         <v>379</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="221">
+    <row r="221" spans="1:8">
       <c t="s" r="A221">
         <v>317</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="222">
+    <row r="222" spans="1:8">
       <c t="s" r="A222">
         <v>267</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="223">
+    <row r="223" spans="1:8">
       <c t="s" r="A223">
         <v>267</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="224">
+    <row r="224" spans="1:8">
       <c t="s" r="A224">
         <v>267</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="225">
+    <row r="225" spans="1:8">
       <c t="s" r="A225">
         <v>267</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="226">
+    <row r="226" spans="1:8">
       <c t="s" r="A226">
         <v>267</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="227">
+    <row r="227" spans="1:8">
       <c t="s" r="A227">
         <v>494</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="228">
+    <row r="228" spans="1:8">
       <c t="s" r="A228">
         <v>495</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="229">
+    <row r="229" spans="1:8">
       <c t="s" r="A229">
         <v>236</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="230">
+    <row r="230" spans="1:8">
       <c t="s" r="A230">
         <v>237</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="231">
+    <row r="231" spans="1:8">
       <c t="s" r="A231">
         <v>238</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="232">
+    <row r="232" spans="1:8">
       <c t="s" r="A232">
         <v>399</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="233">
+    <row r="233" spans="1:8">
       <c t="s" r="A233">
         <v>324</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="234">
+    <row r="234" spans="1:8">
       <c t="s" r="A234">
         <v>473</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="235">
+    <row r="235" spans="1:8">
       <c t="s" r="A235">
         <v>473</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="236">
+    <row r="236" spans="1:8">
       <c t="s" r="A236">
         <v>90</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="237">
+    <row r="237" spans="1:8">
       <c t="s" r="A237">
         <v>90</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="238">
+    <row r="238" spans="1:8">
       <c t="s" r="A238">
         <v>90</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="239">
+    <row r="239" spans="1:8">
       <c t="s" r="A239">
         <v>90</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="240">
+    <row r="240" spans="1:8">
       <c t="s" r="A240">
         <v>90</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="241">
+    <row r="241" spans="1:8">
       <c t="s" r="A241">
         <v>471</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="242">
+    <row r="242" spans="1:8">
       <c t="s" r="A242">
         <v>471</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="243">
+    <row r="243" spans="1:8">
       <c t="s" r="A243">
         <v>471</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="244">
+    <row r="244" spans="1:8">
       <c t="s" r="A244">
         <v>231</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="245">
+    <row r="245" spans="1:8">
       <c t="s" r="A245">
         <v>357</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="246">
+    <row r="246" spans="1:8">
       <c t="s" r="A246">
         <v>357</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="247">
+    <row r="247" spans="1:8">
       <c t="s" r="A247">
         <v>448</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="248">
+    <row r="248" spans="1:8">
       <c t="s" r="A248">
         <v>210</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="249">
+    <row r="249" spans="1:8">
       <c t="s" r="A249">
         <v>539</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="250">
+    <row r="250" spans="1:8">
       <c t="s" r="A250">
         <v>539</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="251">
+    <row r="251" spans="1:8">
       <c t="s" r="A251">
         <v>539</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="252">
+    <row r="252" spans="1:8">
       <c t="s" r="A252">
         <v>358</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="253">
+    <row r="253" spans="1:8">
       <c t="s" r="A253">
         <v>358</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="254">
+    <row r="254" spans="1:8">
       <c t="s" r="A254">
         <v>358</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="255">
+    <row r="255" spans="1:8">
       <c t="s" r="A255">
         <v>358</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="256">
+    <row r="256" spans="1:8">
       <c t="s" r="A256">
         <v>358</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="257">
+    <row r="257" spans="1:8">
       <c t="s" r="A257">
         <v>271</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="258">
+    <row r="258" spans="1:8">
       <c t="s" r="A258">
         <v>271</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="259">
+    <row r="259" spans="1:8">
       <c t="s" r="A259">
         <v>355</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="260">
+    <row r="260" spans="1:8">
       <c t="s" r="A260">
         <v>11</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="261">
+    <row r="261" spans="1:8">
       <c t="s" r="A261">
         <v>380</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="262">
+    <row r="262" spans="1:8">
       <c t="s" r="A262">
         <v>380</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="263">
+    <row r="263" spans="1:8">
       <c t="s" r="A263">
         <v>32</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="264">
+    <row r="264" spans="1:8">
       <c t="s" r="A264">
         <v>32</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="265">
+    <row r="265" spans="1:8">
       <c t="s" r="A265">
         <v>32</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="266">
+    <row r="266" spans="1:8">
       <c t="s" r="A266">
         <v>388</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="267">
+    <row r="267" spans="1:8">
       <c t="s" r="A267">
         <v>389</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="268">
+    <row r="268" spans="1:8">
       <c t="s" r="A268">
         <v>249</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="269">
+    <row r="269" spans="1:8">
       <c t="s" r="A269">
         <v>241</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="270">
+    <row r="270" spans="1:8">
       <c t="s" r="A270">
         <v>306</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="271">
+    <row r="271" spans="1:8">
       <c t="s" r="A271">
         <v>531</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="272">
+    <row r="272" spans="1:8">
       <c t="s" r="A272">
         <v>531</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="273">
+    <row r="273" spans="1:8">
       <c t="s" r="A273">
         <v>531</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="274">
+    <row r="274" spans="1:8">
       <c t="s" r="A274">
         <v>212</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="275">
+    <row r="275" spans="1:8">
       <c t="s" r="A275">
         <v>216</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="276">
+    <row r="276" spans="1:8">
       <c t="s" r="A276">
         <v>214</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="277">
+    <row r="277" spans="1:8">
       <c t="s" r="A277">
         <v>214</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row spans="1:8" r="278">
+    <row r="278" spans="1:8">
       <c t="s" r="A278">
         <v>103</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="279">
+    <row r="279" spans="1:8">
       <c t="s" r="A279">
         <v>320</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="280">
+    <row r="280" spans="1:8">
       <c t="s" r="A280">
         <v>217</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="281">
+    <row r="281" spans="1:8">
       <c t="s" r="A281">
         <v>217</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="282">
+    <row r="282" spans="1:8">
       <c t="s" r="A282">
         <v>474</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="283">
+    <row r="283" spans="1:8">
       <c t="s" r="A283">
         <v>474</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="284">
+    <row r="284" spans="1:8">
       <c t="s" r="A284">
         <v>474</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="285">
+    <row r="285" spans="1:8">
       <c t="s" r="A285">
         <v>540</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="286">
+    <row r="286" spans="1:8">
       <c t="s" r="A286">
         <v>540</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="287">
+    <row r="287" spans="1:8">
       <c t="s" r="A287">
         <v>235</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="288">
+    <row r="288" spans="1:8">
       <c t="s" r="A288">
         <v>235</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="289">
+    <row r="289" spans="1:8">
       <c t="s" r="A289">
         <v>235</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="290">
+    <row r="290" spans="1:8">
       <c t="s" r="A290">
         <v>235</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="291">
+    <row r="291" spans="1:8">
       <c t="s" r="A291">
         <v>235</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="292">
+    <row r="292" spans="1:8">
       <c t="s" r="A292">
         <v>530</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="293">
+    <row r="293" spans="1:8">
       <c t="s" r="A293">
         <v>491</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="294">
+    <row r="294" spans="1:8">
       <c t="s" r="A294">
         <v>421</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="295">
+    <row r="295" spans="1:8">
       <c t="s" r="A295">
         <v>510</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="296">
+    <row r="296" spans="1:8">
       <c t="s" r="A296">
         <v>245</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="297">
+    <row r="297" spans="1:8">
       <c t="s" r="A297">
         <v>282</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="298">
+    <row r="298" spans="1:8">
       <c t="s" r="A298">
         <v>367</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="299">
+    <row r="299" spans="1:8">
       <c t="s" r="A299">
         <v>367</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="300">
+    <row r="300" spans="1:8">
       <c t="s" r="A300">
         <v>367</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="301">
+    <row r="301" spans="1:8">
       <c t="s" r="A301">
         <v>287</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="302">
+    <row r="302" spans="1:8">
       <c t="s" r="A302">
         <v>287</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="303">
+    <row r="303" spans="1:8">
       <c t="s" r="A303">
         <v>287</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="304">
+    <row r="304" spans="1:8">
       <c t="s" r="A304">
         <v>96</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="305">
+    <row r="305" spans="1:8">
       <c t="s" r="A305">
         <v>37</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="306">
+    <row r="306" spans="1:8">
       <c t="s" r="A306">
         <v>37</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="307">
+    <row r="307" spans="1:8">
       <c t="s" r="A307">
         <v>37</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="308">
+    <row r="308" spans="1:8">
       <c t="s" r="A308">
         <v>284</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="309">
+    <row r="309" spans="1:8">
       <c t="s" r="A309">
         <v>426</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="310">
+    <row r="310" spans="1:8">
       <c t="s" r="A310">
         <v>426</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="311">
+    <row r="311" spans="1:8">
       <c t="s" r="A311">
         <v>41</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="312">
+    <row r="312" spans="1:8">
       <c t="s" r="A312">
         <v>41</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="313">
+    <row r="313" spans="1:8">
       <c t="s" r="A313">
         <v>0</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="314">
+    <row r="314" spans="1:8">
       <c t="s" r="A314">
         <v>0</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="315">
+    <row r="315" spans="1:8">
       <c t="s" r="A315">
         <v>518</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="316">
+    <row r="316" spans="1:8">
       <c t="s" r="A316">
         <v>517</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="317">
+    <row r="317" spans="1:8">
       <c t="s" r="A317">
         <v>517</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="318">
+    <row r="318" spans="1:8">
       <c t="s" r="A318">
         <v>539</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="319">
+    <row r="319" spans="1:8">
       <c t="s" r="A319">
         <v>539</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="320">
+    <row r="320" spans="1:8">
       <c t="s" r="A320">
         <v>539</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="321">
+    <row r="321" spans="1:8">
       <c t="s" r="A321">
         <v>539</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="322">
+    <row r="322" spans="1:8">
       <c t="s" r="A322">
         <v>539</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="323">
+    <row r="323" spans="1:8">
       <c t="s" r="A323">
         <v>450</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="324">
+    <row r="324" spans="1:8">
       <c t="s" r="A324">
         <v>358</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="325">
+    <row r="325" spans="1:8">
       <c t="s" r="A325">
         <v>271</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="326">
+    <row r="326" spans="1:8">
       <c t="s" r="A326">
         <v>271</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="327">
+    <row r="327" spans="1:8">
       <c t="s" r="A327">
         <v>352</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="328">
+    <row r="328" spans="1:8">
       <c t="s" r="A328">
         <v>352</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="329">
+    <row r="329" spans="1:8">
       <c t="s" r="A329">
         <v>494</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="330">
+    <row r="330" spans="1:8">
       <c t="s" r="A330">
         <v>497</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="331">
+    <row r="331" spans="1:8">
       <c t="s" r="A331">
         <v>326</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="332">
+    <row r="332" spans="1:8">
       <c t="s" r="A332">
         <v>493</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="333">
+    <row r="333" spans="1:8">
       <c t="s" r="A333">
         <v>492</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="334">
+    <row r="334" spans="1:8">
       <c t="s" r="A334">
         <v>495</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="335">
+    <row r="335" spans="1:8">
       <c t="s" r="A335">
         <v>531</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="336">
+    <row r="336" spans="1:8">
       <c t="s" r="A336">
         <v>255</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="337">
+    <row r="337" spans="1:8">
       <c t="s" r="A337">
         <v>222</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="338">
+    <row r="338" spans="1:8">
       <c t="s" r="A338">
         <v>256</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="339">
+    <row r="339" spans="1:8">
       <c t="s" r="A339">
         <v>350</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="340">
+    <row r="340" spans="1:8">
       <c t="s" r="A340">
         <v>547</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="341">
+    <row r="341" spans="1:8">
       <c t="s" r="A341">
         <v>9</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="342">
+    <row r="342" spans="1:8">
       <c t="s" r="A342">
         <v>52</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="343">
+    <row r="343" spans="1:8">
       <c t="s" r="A343">
         <v>397</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="344">
+    <row r="344" spans="1:8">
       <c t="s" r="A344">
         <v>302</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="345">
+    <row r="345" spans="1:8">
       <c t="s" r="A345">
         <v>230</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="346">
+    <row r="346" spans="1:8">
       <c t="s" r="A346">
         <v>230</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="347">
+    <row r="347" spans="1:8">
       <c t="s" r="A347">
         <v>313</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="348">
+    <row r="348" spans="1:8">
       <c t="s" r="A348">
         <v>461</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="349">
+    <row r="349" spans="1:8">
       <c t="s" r="A349">
         <v>461</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="350">
+    <row r="350" spans="1:8">
       <c t="s" r="A350">
         <v>461</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="351">
+    <row r="351" spans="1:8">
       <c t="s" r="A351">
         <v>461</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="352">
+    <row r="352" spans="1:8">
       <c t="s" r="A352">
         <v>244</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="353">
+    <row r="353" spans="1:8">
       <c t="s" r="A353">
         <v>244</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="354">
+    <row r="354" spans="1:8">
       <c t="s" r="A354">
         <v>400</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="355">
+    <row r="355" spans="1:8">
       <c t="s" r="A355">
         <v>400</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="356">
+    <row r="356" spans="1:8">
       <c t="s" r="A356">
         <v>400</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="357">
+    <row r="357" spans="1:8">
       <c t="s" r="A357">
         <v>400</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="358">
+    <row r="358" spans="1:8">
       <c t="s" r="A358">
         <v>400</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="359">
+    <row r="359" spans="1:8">
       <c t="s" r="A359">
         <v>319</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="360">
+    <row r="360" spans="1:8">
       <c t="s" r="A360">
         <v>319</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="361">
+    <row r="361" spans="1:8">
       <c t="s" r="A361">
         <v>525</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="362">
+    <row r="362" spans="1:8">
       <c t="s" r="A362">
         <v>525</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="363">
+    <row r="363" spans="1:8">
       <c t="s" r="A363">
         <v>525</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="364">
+    <row r="364" spans="1:8">
       <c t="s" r="A364">
         <v>406</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="365">
+    <row r="365" spans="1:8">
       <c t="s" r="A365">
         <v>406</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="366">
+    <row r="366" spans="1:8">
       <c t="s" r="A366">
         <v>406</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="367">
+    <row r="367" spans="1:8">
       <c t="s" r="A367">
         <v>406</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="368">
+    <row r="368" spans="1:8">
       <c t="s" r="A368">
         <v>406</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="369">
+    <row r="369" spans="1:8">
       <c t="s" r="A369">
         <v>40</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="370">
+    <row r="370" spans="1:8">
       <c t="s" r="A370">
         <v>40</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="371">
+    <row r="371" spans="1:8">
       <c t="s" r="A371">
         <v>40</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="372">
+    <row r="372" spans="1:8">
       <c t="s" r="A372">
         <v>282</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="373">
+    <row r="373" spans="1:8">
       <c t="s" r="A373">
         <v>282</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="374">
+    <row r="374" spans="1:8">
       <c t="s" r="A374">
         <v>408</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="375">
+    <row r="375" spans="1:8">
       <c t="s" r="A375">
         <v>409</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="376">
+    <row r="376" spans="1:8">
       <c t="s" r="A376">
         <v>409</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="377">
+    <row r="377" spans="1:8">
       <c t="s" r="A377">
         <v>409</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="378">
+    <row r="378" spans="1:8">
       <c t="s" r="A378">
         <v>409</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="379">
+    <row r="379" spans="1:8">
       <c t="s" r="A379">
         <v>404</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="380">
+    <row r="380" spans="1:8">
       <c t="s" r="A380">
         <v>509</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="381">
+    <row r="381" spans="1:8">
       <c t="s" r="A381">
         <v>412</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="382">
+    <row r="382" spans="1:8">
       <c t="s" r="A382">
         <v>412</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="383">
+    <row r="383" spans="1:8">
       <c t="s" r="A383">
         <v>412</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="384">
+    <row r="384" spans="1:8">
       <c t="s" r="A384">
         <v>412</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="385">
+    <row r="385" spans="1:8">
       <c t="s" r="A385">
         <v>381</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="386">
+    <row r="386" spans="1:8">
       <c t="s" r="A386">
         <v>381</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="387">
+    <row r="387" spans="1:8">
       <c t="s" r="A387">
         <v>451</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="388">
+    <row r="388" spans="1:8">
       <c t="s" r="A388">
         <v>201</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="389">
+    <row r="389" spans="1:8">
       <c t="s" r="A389">
         <v>553</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="390">
+    <row r="390" spans="1:8">
       <c t="s" r="A390">
         <v>553</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="391">
+    <row r="391" spans="1:8">
       <c t="s" r="A391">
         <v>209</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="392">
+    <row r="392" spans="1:8">
       <c t="s" r="A392">
         <v>246</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="393">
+    <row r="393" spans="1:8">
       <c t="s" r="A393">
         <v>105</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="394">
+    <row r="394" spans="1:8">
       <c t="s" r="A394">
         <v>93</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="395">
+    <row r="395" spans="1:8">
       <c t="s" r="A395">
         <v>534</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="396">
+    <row r="396" spans="1:8">
       <c t="s" r="A396">
         <v>268</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="397">
+    <row r="397" spans="1:8">
       <c t="s" r="A397">
         <v>410</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="398">
+    <row r="398" spans="1:8">
       <c t="s" r="A398">
         <v>410</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="399">
+    <row r="399" spans="1:8">
       <c t="s" r="A399">
         <v>410</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="400">
+    <row r="400" spans="1:8">
       <c t="s" r="A400">
         <v>410</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="401">
+    <row r="401" spans="1:8">
       <c t="s" r="A401">
         <v>453</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="402">
+    <row r="402" spans="1:8">
       <c t="s" r="A402">
         <v>280</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="403">
+    <row r="403" spans="1:8">
       <c t="s" r="A403">
         <v>280</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="404">
+    <row r="404" spans="1:8">
       <c t="s" r="A404">
         <v>276</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="405">
+    <row r="405" spans="1:8">
       <c t="s" r="A405">
         <v>276</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="406">
+    <row r="406" spans="1:8">
       <c t="s" r="A406">
         <v>333</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="407">
+    <row r="407" spans="1:8">
       <c t="s" r="A407">
         <v>522</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="408">
+    <row r="408" spans="1:8">
       <c t="s" r="A408">
         <v>523</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="409">
+    <row r="409" spans="1:8">
       <c t="s" r="A409">
         <v>450</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="410">
+    <row r="410" spans="1:8">
       <c t="s" r="A410">
         <v>449</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="411">
+    <row r="411" spans="1:8">
       <c t="s" r="A411">
         <v>422</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="412">
+    <row r="412" spans="1:8">
       <c t="s" r="A412">
         <v>400</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="413">
+    <row r="413" spans="1:8">
       <c t="s" r="A413">
         <v>400</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="414">
+    <row r="414" spans="1:8">
       <c t="s" r="A414">
         <v>355</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="415">
+    <row r="415" spans="1:8">
       <c t="s" r="A415">
         <v>355</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="416">
+    <row r="416" spans="1:8">
       <c t="s" r="A416">
         <v>531</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="417">
+    <row r="417" spans="1:8">
       <c t="s" r="A417">
         <v>436</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="418">
+    <row r="418" spans="1:8">
       <c t="s" r="A418">
         <v>255</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="419">
+    <row r="419" spans="1:8">
       <c t="s" r="A419">
         <v>222</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="420">
+    <row r="420" spans="1:8">
       <c t="s" r="A420">
         <v>256</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="421">
+    <row r="421" spans="1:8">
       <c t="s" r="A421">
         <v>350</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="422">
+    <row r="422" spans="1:8">
       <c t="s" r="A422">
         <v>547</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="423">
+    <row r="423" spans="1:8">
       <c t="s" r="A423">
         <v>10</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="424">
+    <row r="424" spans="1:8">
       <c t="s" r="A424">
         <v>487</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="425">
+    <row r="425" spans="1:8">
       <c t="s" r="A425">
         <v>403</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="426">
+    <row r="426" spans="1:8">
       <c t="s" r="A426">
         <v>91</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="427">
+    <row r="427" spans="1:8">
       <c t="s" r="A427">
         <v>221</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="428">
+    <row r="428" spans="1:8">
       <c t="s" r="A428">
         <v>221</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="429">
+    <row r="429" spans="1:8">
       <c t="s" r="A429">
         <v>302</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="430">
+    <row r="430" spans="1:8">
       <c t="s" r="A430">
         <v>313</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="431">
+    <row r="431" spans="1:8">
       <c t="s" r="A431">
         <v>414</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="432">
+    <row r="432" spans="1:8">
       <c t="s" r="A432">
         <v>316</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="433">
+    <row r="433" spans="1:8">
       <c t="s" r="A433">
         <v>285</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="434">
+    <row r="434" spans="1:8">
       <c t="s" r="A434">
         <v>285</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="435">
+    <row r="435" spans="1:8">
       <c t="s" r="A435">
         <v>42</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="436">
+    <row r="436" spans="1:8">
       <c t="s" r="A436">
         <v>41</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="437">
+    <row r="437" spans="1:8">
       <c t="s" r="A437">
         <v>209</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="438">
+    <row r="438" spans="1:8">
       <c t="s" r="A438">
         <v>209</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="439">
+    <row r="439" spans="1:8">
       <c t="s" r="A439">
         <v>401</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="440">
+    <row r="440" spans="1:8">
       <c t="s" r="A440">
         <v>339</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="441">
+    <row r="441" spans="1:8">
       <c t="s" r="A441">
         <v>104</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="442">
+    <row r="442" spans="1:8">
       <c t="s" r="A442">
         <v>104</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="443">
+    <row r="443" spans="1:8">
       <c t="s" r="A443">
         <v>104</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="444">
+    <row r="444" spans="1:8">
       <c t="s" r="A444">
         <v>95</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="445">
+    <row r="445" spans="1:8">
       <c t="s" r="A445">
         <v>550</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="446">
+    <row r="446" spans="1:8">
       <c t="s" r="A446">
         <v>501</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="447">
+    <row r="447" spans="1:8">
       <c t="s" r="A447">
         <v>219</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="448">
+    <row r="448" spans="1:8">
       <c t="s" r="A448">
         <v>419</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="449">
+    <row r="449" spans="1:8">
       <c t="s" r="A449">
         <v>444</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="450">
+    <row r="450" spans="1:8">
       <c t="s" r="A450">
         <v>298</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="451">
+    <row r="451" spans="1:8">
       <c t="s" r="A451">
         <v>344</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="452">
+    <row r="452" spans="1:8">
       <c t="s" r="A452">
         <v>506</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="453">
+    <row r="453" spans="1:8">
       <c t="s" r="A453">
         <v>507</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="454">
+    <row r="454" spans="1:8">
       <c t="s" r="A454">
         <v>502</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="455">
+    <row r="455" spans="1:8">
       <c t="s" r="A455">
         <v>382</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="456">
+    <row r="456" spans="1:8">
       <c t="s" r="A456">
         <v>463</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="457">
+    <row r="457" spans="1:8">
       <c t="s" r="A457">
         <v>296</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="458">
+    <row r="458" spans="1:8">
       <c t="s" r="A458">
         <v>295</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="459">
+    <row r="459" spans="1:8">
       <c t="s" r="A459">
         <v>293</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="460">
+    <row r="460" spans="1:8">
       <c t="s" r="A460">
         <v>297</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="461">
+    <row r="461" spans="1:8">
       <c t="s" r="A461">
         <v>360</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="462">
+    <row r="462" spans="1:8">
       <c t="s" r="A462">
         <v>360</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="463">
+    <row r="463" spans="1:8">
       <c t="s" r="A463">
         <v>334</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="464">
+    <row r="464" spans="1:8">
       <c t="s" r="A464">
         <v>511</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="465">
+    <row r="465" spans="1:8">
       <c t="s" r="A465">
         <v>515</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="466">
+    <row r="466" spans="1:8">
       <c t="s" r="A466">
         <v>291</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="467">
+    <row r="467" spans="1:8">
       <c t="s" r="A467">
         <v>512</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="468">
+    <row r="468" spans="1:8">
       <c t="s" r="A468">
         <v>521</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="469">
+    <row r="469" spans="1:8">
       <c t="s" r="A469">
         <v>549</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="470">
+    <row r="470" spans="1:8">
       <c t="s" r="A470">
         <v>494</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="471">
+    <row r="471" spans="1:8">
       <c t="s" r="A471">
         <v>496</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="472">
+    <row r="472" spans="1:8">
       <c t="s" r="A472">
         <v>327</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="473">
+    <row r="473" spans="1:8">
       <c t="s" r="A473">
         <v>495</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="474">
+    <row r="474" spans="1:8">
       <c t="s" r="A474">
         <v>411</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="475">
+    <row r="475" spans="1:8">
       <c t="s" r="A475">
         <v>411</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="476">
+    <row r="476" spans="1:8">
       <c t="s" r="A476">
         <v>411</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="477">
+    <row r="477" spans="1:8">
       <c t="s" r="A477">
         <v>472</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="478">
+    <row r="478" spans="1:8">
       <c t="s" r="A478">
         <v>472</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="479">
+    <row r="479" spans="1:8">
       <c t="s" r="A479">
         <v>472</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="480">
+    <row r="480" spans="1:8">
       <c t="s" r="A480">
         <v>407</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="481">
+    <row r="481" spans="1:8">
       <c t="s" r="A481">
         <v>407</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="482">
+    <row r="482" spans="1:8">
       <c t="s" r="A482">
         <v>407</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="483">
+    <row r="483" spans="1:8">
       <c t="s" r="A483">
         <v>407</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="484">
+    <row r="484" spans="1:8">
       <c t="s" r="A484">
         <v>225</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="485">
+    <row r="485" spans="1:8">
       <c t="s" r="A485">
         <v>314</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="486">
+    <row r="486" spans="1:8">
       <c t="s" r="A486">
         <v>314</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="487">
+    <row r="487" spans="1:8">
       <c t="s" r="A487">
         <v>314</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="488">
+    <row r="488" spans="1:8">
       <c t="s" r="A488">
         <v>310</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="489">
+    <row r="489" spans="1:8">
       <c t="s" r="A489">
         <v>310</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="490">
+    <row r="490" spans="1:8">
       <c t="s" r="A490">
         <v>310</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="491">
+    <row r="491" spans="1:8">
       <c t="s" r="A491">
         <v>310</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="492">
+    <row r="492" spans="1:8">
       <c t="s" r="A492">
         <v>341</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="493">
+    <row r="493" spans="1:8">
       <c t="s" r="A493">
         <v>341</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="494">
+    <row r="494" spans="1:8">
       <c t="s" r="A494">
         <v>341</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="495">
+    <row r="495" spans="1:8">
       <c t="s" r="A495">
         <v>341</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="496">
+    <row r="496" spans="1:8">
       <c t="s" r="A496">
         <v>365</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="497">
+    <row r="497" spans="1:8">
       <c t="s" r="A497">
         <v>365</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="498">
+    <row r="498" spans="1:8">
       <c t="s" r="A498">
         <v>365</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="499">
+    <row r="499" spans="1:8">
       <c t="s" r="A499">
         <v>366</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="500">
+    <row r="500" spans="1:8">
       <c t="s" r="A500">
         <v>366</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="501">
+    <row r="501" spans="1:8">
       <c t="s" r="A501">
         <v>514</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="502">
+    <row r="502" spans="1:8">
       <c t="s" r="A502">
         <v>541</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="503">
+    <row r="503" spans="1:8">
       <c t="s" r="A503">
         <v>228</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="504">
+    <row r="504" spans="1:8">
       <c t="s" r="A504">
         <v>274</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="505">
+    <row r="505" spans="1:8">
       <c t="s" r="A505">
         <v>105</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="506">
+    <row r="506" spans="1:8">
       <c t="s" r="A506">
         <v>105</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="507">
+    <row r="507" spans="1:8">
       <c t="s" r="A507">
         <v>412</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="508">
+    <row r="508" spans="1:8">
       <c t="s" r="A508">
         <v>526</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="509">
+    <row r="509" spans="1:8">
       <c t="s" r="A509">
         <v>461</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="510">
+    <row r="510" spans="1:8">
       <c t="s" r="A510">
         <v>461</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="511">
+    <row r="511" spans="1:8">
       <c t="s" r="A511">
         <v>461</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="512">
+    <row r="512" spans="1:8">
       <c t="s" r="A512">
         <v>461</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="513">
+    <row r="513" spans="1:8">
       <c t="s" r="A513">
         <v>461</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="514">
+    <row r="514" spans="1:8">
       <c t="s" r="A514">
         <v>461</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="515">
+    <row r="515" spans="1:8">
       <c t="s" r="A515">
         <v>461</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="516">
+    <row r="516" spans="1:8">
       <c t="s" r="A516">
         <v>461</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="517">
+    <row r="517" spans="1:8">
       <c t="s" r="A517">
         <v>555</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="518">
+    <row r="518" spans="1:8">
       <c t="s" r="A518">
         <v>555</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="519">
+    <row r="519" spans="1:8">
       <c t="s" r="A519">
         <v>554</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="520">
+    <row r="520" spans="1:8">
       <c t="s" r="A520">
         <v>554</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="521">
+    <row r="521" spans="1:8">
       <c t="s" r="A521">
         <v>554</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="522">
+    <row r="522" spans="1:8">
       <c t="s" r="A522">
         <v>554</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="523">
+    <row r="523" spans="1:8">
       <c t="s" r="A523">
         <v>554</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="524">
+    <row r="524" spans="1:8">
       <c t="s" r="A524">
         <v>413</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="525">
+    <row r="525" spans="1:8">
       <c t="s" r="A525">
         <v>525</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="526">
+    <row r="526" spans="1:8">
       <c t="s" r="A526">
         <v>525</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="527">
+    <row r="527" spans="1:8">
       <c t="s" r="A527">
         <v>98</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="528">
+    <row r="528" spans="1:8">
       <c t="s" r="A528">
         <v>98</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="529">
+    <row r="529" spans="1:8">
       <c t="s" r="A529">
         <v>98</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="530">
+    <row r="530" spans="1:8">
       <c t="s" r="A530">
         <v>98</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="531">
+    <row r="531" spans="1:8">
       <c t="s" r="A531">
         <v>98</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="532">
+    <row r="532" spans="1:8">
       <c t="s" r="A532">
         <v>98</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="533">
+    <row r="533" spans="1:8">
       <c t="s" r="A533">
         <v>315</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="534">
+    <row r="534" spans="1:8">
       <c t="s" r="A534">
         <v>385</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="535">
+    <row r="535" spans="1:8">
       <c t="s" r="A535">
         <v>113</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="536">
+    <row r="536" spans="1:8">
       <c t="s" r="A536">
         <v>113</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="537">
+    <row r="537" spans="1:8">
       <c t="s" r="A537">
         <v>113</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="538">
+    <row r="538" spans="1:8">
       <c t="s" r="A538">
         <v>113</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="539">
+    <row r="539" spans="1:8">
       <c t="s" r="A539">
         <v>520</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="540">
+    <row r="540" spans="1:8">
       <c t="s" r="A540">
         <v>452</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="541">
+    <row r="541" spans="1:8">
       <c t="s" r="A541">
         <v>454</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="542">
+    <row r="542" spans="1:8">
       <c t="s" r="A542">
         <v>348</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="543">
+    <row r="543" spans="1:8">
       <c t="s" r="A543">
         <v>434</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="544">
+    <row r="544" spans="1:8">
       <c t="s" r="A544">
         <v>433</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="545">
+    <row r="545" spans="1:8">
       <c t="s" r="A545">
         <v>378</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="546">
+    <row r="546" spans="1:8">
       <c t="s" r="A546">
         <v>247</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="547">
+    <row r="547" spans="1:8">
       <c t="s" r="A547">
         <v>101</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="548">
+    <row r="548" spans="1:8">
       <c t="s" r="A548">
         <v>101</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="549">
+    <row r="549" spans="1:8">
       <c t="s" r="A549">
         <v>101</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="550">
+    <row r="550" spans="1:8">
       <c t="s" r="A550">
         <v>97</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="551">
+    <row r="551" spans="1:8">
       <c t="s" r="A551">
         <v>97</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="552">
+    <row r="552" spans="1:8">
       <c t="s" r="A552">
         <v>260</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="553">
+    <row r="553" spans="1:8">
       <c t="s" r="A553">
         <v>260</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="554">
+    <row r="554" spans="1:8">
       <c t="s" r="A554">
         <v>94</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="555">
+    <row r="555" spans="1:8">
       <c t="s" r="A555">
         <v>94</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="556">
+    <row r="556" spans="1:8">
       <c t="s" r="A556">
         <v>94</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="557">
+    <row r="557" spans="1:8">
       <c t="s" r="A557">
         <v>100</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="558">
+    <row r="558" spans="1:8">
       <c t="s" r="A558">
         <v>100</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="559">
+    <row r="559" spans="1:8">
       <c t="s" r="A559">
         <v>261</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="560">
+    <row r="560" spans="1:8">
       <c t="s" r="A560">
         <v>205</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="561">
+    <row r="561" spans="1:8">
       <c t="s" r="A561">
         <v>205</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="562">
+    <row r="562" spans="1:8">
       <c t="s" r="A562">
         <v>207</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="563">
+    <row r="563" spans="1:8">
       <c t="s" r="A563">
         <v>207</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="564">
+    <row r="564" spans="1:8">
       <c t="s" r="A564">
         <v>207</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="565">
+    <row r="565" spans="1:8">
       <c t="s" r="A565">
         <v>207</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="566">
+    <row r="566" spans="1:8">
       <c t="s" r="A566">
         <v>273</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="567">
+    <row r="567" spans="1:8">
       <c t="s" r="A567">
         <v>273</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="568">
+    <row r="568" spans="1:8">
       <c t="s" r="A568">
         <v>273</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="569">
+    <row r="569" spans="1:8">
       <c t="s" r="A569">
         <v>273</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="570">
+    <row r="570" spans="1:8">
       <c t="s" r="A570">
         <v>275</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="571">
+    <row r="571" spans="1:8">
       <c t="s" r="A571">
         <v>275</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="572">
+    <row r="572" spans="1:8">
       <c t="s" r="A572">
         <v>275</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="573">
+    <row r="573" spans="1:8">
       <c t="s" r="A573">
         <v>281</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="574">
+    <row r="574" spans="1:8">
       <c t="s" r="A574">
         <v>281</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="575">
+    <row r="575" spans="1:8">
       <c t="s" r="A575">
         <v>359</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="576">
+    <row r="576" spans="1:8">
       <c t="s" r="A576">
         <v>92</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="577">
+    <row r="577" spans="1:8">
       <c t="s" r="A577">
         <v>205</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="578">
+    <row r="578" spans="1:8">
       <c t="s" r="A578">
         <v>203</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="579">
+    <row r="579" spans="1:8">
       <c t="s" r="A579">
         <v>207</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="580">
+    <row r="580" spans="1:8">
       <c t="s" r="A580">
         <v>207</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="581">
+    <row r="581" spans="1:8">
       <c t="s" r="A581">
         <v>207</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="582">
+    <row r="582" spans="1:8">
       <c t="s" r="A582">
         <v>207</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="583">
+    <row r="583" spans="1:8">
       <c t="s" r="A583">
         <v>537</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="584">
+    <row r="584" spans="1:8">
       <c t="s" r="A584">
         <v>206</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="585">
+    <row r="585" spans="1:8">
       <c t="s" r="A585">
         <v>347</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="586">
+    <row r="586" spans="1:8">
       <c t="s" r="A586">
         <v>538</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="587">
+    <row r="587" spans="1:8">
       <c t="s" r="A587">
         <v>8</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="588">
+    <row r="588" spans="1:8">
       <c t="s" r="A588">
         <v>227</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="589">
+    <row r="589" spans="1:8">
       <c t="s" r="A589">
         <v>300</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="590">
+    <row r="590" spans="1:8">
       <c t="s" r="A590">
         <v>535</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="591">
+    <row r="591" spans="1:8">
       <c t="s" r="A591">
         <v>564</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="592">
+    <row r="592" spans="1:8">
       <c t="s" r="A592">
         <v>305</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="593">
+    <row r="593" spans="1:8">
       <c t="s" r="A593">
         <v>562</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="594">
+    <row r="594" spans="1:8">
       <c t="s" r="A594">
         <v>309</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="595">
+    <row r="595" spans="1:8">
       <c t="s" r="A595">
         <v>462</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="596">
+    <row r="596" spans="1:8">
       <c t="s" r="A596">
         <v>329</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="597">
+    <row r="597" spans="1:8">
       <c t="s" r="A597">
         <v>414</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="598">
+    <row r="598" spans="1:8">
       <c t="s" r="A598">
         <v>99</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="599">
+    <row r="599" spans="1:8">
       <c t="s" r="A599">
         <v>99</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="600">
+    <row r="600" spans="1:8">
       <c t="s" r="A600">
         <v>559</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="601">
+    <row r="601" spans="1:8">
       <c t="s" r="A601">
         <v>99</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="602">
+    <row r="602" spans="1:8">
       <c t="s" r="A602">
         <v>262</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="603">
+    <row r="603" spans="1:8">
       <c t="s" r="A603">
         <v>262</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="604">
+    <row r="604" spans="1:8">
       <c t="s" r="A604">
         <v>533</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="605">
+    <row r="605" spans="1:8">
       <c t="s" r="A605">
         <v>430</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="606">
+    <row r="606" spans="1:8">
       <c t="s" r="A606">
         <v>213</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="607">
+    <row r="607" spans="1:8">
       <c t="s" r="A607">
         <v>262</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="608">
+    <row r="608" spans="1:8">
       <c t="s" r="A608">
         <v>288</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="609">
+    <row r="609" spans="1:8">
       <c t="s" r="A609">
         <v>488</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="610">
+    <row r="610" spans="1:8">
       <c t="s" r="A610">
         <v>425</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="611">
+    <row r="611" spans="1:8">
       <c t="s" r="A611">
         <v>316</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="612">
+    <row r="612" spans="1:8">
       <c t="s" r="A612">
         <v>302</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="613">
+    <row r="613" spans="1:8">
       <c t="s" r="A613">
         <v>437</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="614">
+    <row r="614" spans="1:8">
       <c t="s" r="A614">
         <v>438</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="615">
+    <row r="615" spans="1:8">
       <c t="s" r="A615">
         <v>255</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="616">
+    <row r="616" spans="1:8">
       <c t="s" r="A616">
         <v>222</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="617">
+    <row r="617" spans="1:8">
       <c t="s" r="A617">
         <v>362</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="618">
+    <row r="618" spans="1:8">
       <c t="s" r="A618">
         <v>256</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="619">
+    <row r="619" spans="1:8">
       <c t="s" r="A619">
         <v>455</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="620">
+    <row r="620" spans="1:8">
       <c t="s" r="A620">
         <v>349</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="621">
+    <row r="621" spans="1:8">
       <c t="s" r="A621">
         <v>547</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="622">
+    <row r="622" spans="1:8">
       <c t="s" r="A622">
         <v>464</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="623">
+    <row r="623" spans="1:8">
       <c t="s" r="A623">
         <v>44</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="624">
+    <row r="624" spans="1:8">
       <c t="s" r="A624">
         <v>283</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="625">
+    <row r="625" spans="1:8">
       <c t="s" r="A625">
         <v>283</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="626">
+    <row r="626" spans="1:8">
       <c t="s" r="A626">
         <v>211</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="627">
+    <row r="627" spans="1:8">
       <c t="s" r="A627">
         <v>211</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="628">
+    <row r="628" spans="1:8">
       <c t="s" r="A628">
         <v>373</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="629">
+    <row r="629" spans="1:8">
       <c t="s" r="A629">
         <v>328</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="630">
+    <row r="630" spans="1:8">
       <c t="s" r="A630">
         <v>328</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="631">
+    <row r="631" spans="1:8">
       <c t="s" r="A631">
         <v>116</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="632">
+    <row r="632" spans="1:8">
       <c t="s" r="A632">
         <v>556</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="633">
+    <row r="633" spans="1:8">
       <c t="s" r="A633">
         <v>544</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="634">
+    <row r="634" spans="1:8">
       <c t="s" r="A634">
         <v>432</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="635">
+    <row r="635" spans="1:8">
       <c t="s" r="A635">
         <v>516</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="636">
+    <row r="636" spans="1:8">
       <c t="s" r="A636">
         <v>516</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="637">
+    <row r="637" spans="1:8">
       <c t="s" r="A637">
         <v>233</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="638">
+    <row r="638" spans="1:8">
       <c t="s" r="A638">
         <v>38</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="639">
+    <row r="639" spans="1:8">
       <c t="s" r="A639">
         <v>332</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="640">
+    <row r="640" spans="1:8">
       <c t="s" r="A640">
         <v>439</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="641">
+    <row r="641" spans="1:8">
       <c t="s" r="A641">
         <v>519</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="642">
+    <row r="642" spans="1:8">
       <c t="s" r="A642">
         <v>346</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="643">
+    <row r="643" spans="1:8">
       <c t="s" r="A643">
         <v>294</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="644">
+    <row r="644" spans="1:8">
       <c t="s" r="A644">
         <v>546</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="645">
+    <row r="645" spans="1:8">
       <c t="s" r="A645">
         <v>465</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="646">
+    <row r="646" spans="1:8">
       <c t="s" r="A646">
         <v>565</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="647">
+    <row r="647" spans="1:8">
       <c t="s" r="A647">
         <v>258</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="648">
+    <row r="648" spans="1:8">
       <c t="s" r="A648">
         <v>424</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="649">
+    <row r="649" spans="1:8">
       <c t="s" r="A649">
         <v>424</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="650">
+    <row r="650" spans="1:8">
       <c t="s" r="A650">
         <v>500</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="651">
+    <row r="651" spans="1:8">
       <c t="s" r="A651">
         <v>505</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="652">
+    <row r="652" spans="1:8">
       <c t="s" r="A652">
         <v>208</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="653">
+    <row r="653" spans="1:8">
       <c t="s" r="A653">
         <v>208</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="654">
+    <row r="654" spans="1:8">
       <c t="s" r="A654">
         <v>43</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="655">
+    <row r="655" spans="1:8">
       <c t="s" r="A655">
         <v>513</v>
       </c>
@@ -17316,7 +17316,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="656">
+    <row r="656" spans="1:8">
       <c t="s" r="A656">
         <v>513</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="657">
+    <row r="657" spans="1:8">
       <c t="s" r="A657">
         <v>224</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="658">
+    <row r="658" spans="1:8">
       <c t="s" r="A658">
         <v>340</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="659">
+    <row r="659" spans="1:8">
       <c t="s" r="A659">
         <v>369</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="660">
+    <row r="660" spans="1:8">
       <c t="s" r="A660">
         <v>342</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="661">
+    <row r="661" spans="1:8">
       <c t="s" r="A661">
         <v>286</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="662">
+    <row r="662" spans="1:8">
       <c t="s" r="A662">
         <v>548</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="663">
+    <row r="663" spans="1:8">
       <c t="s" r="A663">
         <v>440</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="664">
+    <row r="664" spans="1:8">
       <c t="s" r="A664">
         <v>223</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="665">
+    <row r="665" spans="1:8">
       <c t="s" r="A665">
         <v>539</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="666">
+    <row r="666" spans="1:8">
       <c t="s" r="A666">
         <v>539</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="667">
+    <row r="667" spans="1:8">
       <c t="s" r="A667">
         <v>539</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="668">
+    <row r="668" spans="1:8">
       <c t="s" r="A668">
         <v>539</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="669">
+    <row r="669" spans="1:8">
       <c t="s" r="A669">
         <v>539</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="670">
+    <row r="670" spans="1:8">
       <c t="s" r="A670">
         <v>354</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="671">
+    <row r="671" spans="1:8">
       <c t="s" r="A671">
         <v>354</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="672">
+    <row r="672" spans="1:8">
       <c t="s" r="A672">
         <v>354</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="673">
+    <row r="673" spans="1:8">
       <c t="s" r="A673">
         <v>354</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="674">
+    <row r="674" spans="1:8">
       <c t="s" r="A674">
         <v>270</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="675">
+    <row r="675" spans="1:8">
       <c t="s" r="A675">
         <v>270</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="676">
+    <row r="676" spans="1:8">
       <c t="s" r="A676">
         <v>270</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="677">
+    <row r="677" spans="1:8">
       <c t="s" r="A677">
         <v>494</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="678">
+    <row r="678" spans="1:8">
       <c t="s" r="A678">
         <v>495</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="679">
+    <row r="679" spans="1:8">
       <c t="s" r="A679">
         <v>39</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="680">
+    <row r="680" spans="1:8">
       <c t="s" r="A680">
         <v>39</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>498</v>
       </c>
     </row>
-    <row spans="1:8" r="681">
+    <row r="681" spans="1:8">
       <c t="s" r="A681">
         <v>39</v>
       </c>
